--- a/org/3_CCPC_总决赛.xlsx
+++ b/org/3_CCPC_总决赛.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f2bae3ac5a473b94/XCPC/xcpc-final-standings/org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="11_AD4DA82427541F7ACA7EB8CAA88A01926AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42F13FEE-C235-43C5-8FAB-61719BD7B125}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="11_AD4DA82427541F7ACA7EB8CAA88A01926AE8DE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9D3000A-8EB0-4FAE-B020-97C330A34095}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2321" uniqueCount="1183">
   <si>
     <t>Rank</t>
   </si>
@@ -3042,13 +3042,28 @@
     <t>来泽楠</t>
   </si>
   <si>
+    <t>唐伦</t>
+  </si>
+  <si>
+    <t>沈云付</t>
+  </si>
+  <si>
+    <t>Medal</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
     <t>蔡盛梁</t>
   </si>
   <si>
-    <t>唐伦</t>
-  </si>
-  <si>
-    <t>沈云付</t>
+    <t>Honorable</t>
   </si>
   <si>
     <t>陈成</t>
@@ -3366,6 +3381,9 @@
     <t>刘鸣江</t>
   </si>
   <si>
+    <t>石梦雨</t>
+  </si>
+  <si>
     <t>解孟轩</t>
   </si>
   <si>
@@ -3571,10 +3589,6 @@
   </si>
   <si>
     <t>李子贺</t>
-  </si>
-  <si>
-    <t>石梦雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3646,7 +3660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3657,10 +3671,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3948,20 +3958,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:U116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" ht="16.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -4009,21 +4018,24 @@
       <c r="P1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="4" t="s">
         <v>953</v>
       </c>
+      <c r="U1" s="4" t="s">
+        <v>1002</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5">
-      <c r="A2" s="4">
+    <row r="2" spans="1:21" ht="16.5">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -4083,9 +4095,12 @@
       <c r="T2" t="s">
         <v>729</v>
       </c>
+      <c r="U2" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" ht="16.5">
-      <c r="A3" s="4">
+    <row r="3" spans="1:21" ht="16.5">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4145,9 +4160,12 @@
       <c r="T3" t="s">
         <v>729</v>
       </c>
+      <c r="U3" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" ht="33">
-      <c r="A4" s="4">
+    <row r="4" spans="1:21" ht="33">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -4207,9 +4225,12 @@
       <c r="T4" t="s">
         <v>736</v>
       </c>
+      <c r="U4" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" ht="33">
-      <c r="A5" s="4">
+    <row r="5" spans="1:21" ht="33">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -4269,9 +4290,12 @@
       <c r="T5" t="s">
         <v>740</v>
       </c>
+      <c r="U5" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" ht="33">
-      <c r="A6" s="4">
+    <row r="6" spans="1:21" ht="33">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -4331,9 +4355,12 @@
       <c r="T6" t="s">
         <v>744</v>
       </c>
+      <c r="U6" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" ht="16.5">
-      <c r="A7" s="4">
+    <row r="7" spans="1:21" ht="16.5">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4393,9 +4420,12 @@
       <c r="T7" t="s">
         <v>744</v>
       </c>
+      <c r="U7" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" ht="33">
-      <c r="A8" s="4">
+    <row r="8" spans="1:21" ht="33">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -4455,9 +4485,12 @@
       <c r="T8" t="s">
         <v>736</v>
       </c>
+      <c r="U8" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" ht="33">
-      <c r="A9" s="4">
+    <row r="9" spans="1:21" ht="33">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -4517,9 +4550,12 @@
       <c r="T9" t="s">
         <v>740</v>
       </c>
+      <c r="U9" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" ht="33">
-      <c r="A10" s="4">
+    <row r="10" spans="1:21" ht="33">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -4579,9 +4615,12 @@
       <c r="T10" t="s">
         <v>757</v>
       </c>
+      <c r="U10" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" ht="33">
-      <c r="A11" s="4">
+    <row r="11" spans="1:21" ht="33">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -4641,9 +4680,12 @@
       <c r="T11" t="s">
         <v>761</v>
       </c>
+      <c r="U11" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" ht="16.5">
-      <c r="A12" s="4">
+    <row r="12" spans="1:21" ht="16.5">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -4703,9 +4745,12 @@
       <c r="T12" t="s">
         <v>765</v>
       </c>
+      <c r="U12" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" ht="33">
-      <c r="A13" s="4">
+    <row r="13" spans="1:21" ht="33">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -4765,9 +4810,12 @@
       <c r="T13" t="s">
         <v>769</v>
       </c>
+      <c r="U13" t="s">
+        <v>1003</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" ht="33">
-      <c r="A14" s="4">
+    <row r="14" spans="1:21" ht="33">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -4827,9 +4875,12 @@
       <c r="T14" t="s">
         <v>773</v>
       </c>
+      <c r="U14" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" ht="33">
-      <c r="A15" s="4">
+    <row r="15" spans="1:21" ht="33">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -4889,9 +4940,12 @@
       <c r="T15" t="s">
         <v>777</v>
       </c>
+      <c r="U15" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" ht="33">
-      <c r="A16" s="4">
+    <row r="16" spans="1:21" ht="33">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -4951,9 +5005,12 @@
       <c r="T16" t="s">
         <v>781</v>
       </c>
+      <c r="U16" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" ht="33">
-      <c r="A17" s="4">
+    <row r="17" spans="1:21" ht="33">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -5013,9 +5070,12 @@
       <c r="T17" t="s">
         <v>785</v>
       </c>
+      <c r="U17" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" ht="16.5">
-      <c r="A18" s="4">
+    <row r="18" spans="1:21" ht="16.5">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -5075,9 +5135,12 @@
       <c r="T18" t="s">
         <v>789</v>
       </c>
+      <c r="U18" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="19" spans="1:20" ht="33">
-      <c r="A19" s="4">
+    <row r="19" spans="1:21" ht="33">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -5137,9 +5200,12 @@
       <c r="T19" t="s">
         <v>793</v>
       </c>
+      <c r="U19" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="20" spans="1:20" ht="33">
-      <c r="A20" s="4">
+    <row r="20" spans="1:21" ht="33">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -5199,9 +5265,12 @@
       <c r="T20" t="s">
         <v>797</v>
       </c>
+      <c r="U20" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="21" spans="1:20" ht="49.5">
-      <c r="A21" s="4">
+    <row r="21" spans="1:21" ht="49.5">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -5261,9 +5330,12 @@
       <c r="T21" t="s">
         <v>801</v>
       </c>
+      <c r="U21" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="22" spans="1:20" ht="33">
-      <c r="A22" s="4">
+    <row r="22" spans="1:21" ht="33">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -5323,9 +5395,12 @@
       <c r="T22" t="s">
         <v>805</v>
       </c>
+      <c r="U22" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="23" spans="1:20" ht="49.5">
-      <c r="A23" s="4">
+    <row r="23" spans="1:21" ht="49.5">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -5385,9 +5460,12 @@
       <c r="T23" t="s">
         <v>765</v>
       </c>
+      <c r="U23" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="24" spans="1:20" ht="33">
-      <c r="A24" s="4">
+    <row r="24" spans="1:21" ht="33">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -5447,9 +5525,12 @@
       <c r="T24" t="s">
         <v>812</v>
       </c>
+      <c r="U24" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="25" spans="1:20" ht="16.5">
-      <c r="A25" s="4">
+    <row r="25" spans="1:21" ht="16.5">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -5509,9 +5590,12 @@
       <c r="T25" t="s">
         <v>816</v>
       </c>
+      <c r="U25" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="26" spans="1:20" ht="49.5">
-      <c r="A26" s="4">
+    <row r="26" spans="1:21" ht="49.5">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -5571,9 +5655,12 @@
       <c r="T26" t="s">
         <v>777</v>
       </c>
+      <c r="U26" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="27" spans="1:20" ht="33">
-      <c r="A27" s="4">
+    <row r="27" spans="1:21" ht="33">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -5633,9 +5720,12 @@
       <c r="T27" t="s">
         <v>823</v>
       </c>
+      <c r="U27" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="28" spans="1:20" ht="33">
-      <c r="A28" s="4">
+    <row r="28" spans="1:21" ht="33">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -5695,9 +5785,12 @@
       <c r="T28" t="s">
         <v>827</v>
       </c>
+      <c r="U28" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="29" spans="1:20" ht="33">
-      <c r="A29" s="4">
+    <row r="29" spans="1:21" ht="33">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -5757,9 +5850,12 @@
       <c r="T29" t="s">
         <v>831</v>
       </c>
+      <c r="U29" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="30" spans="1:20" ht="33">
-      <c r="A30" s="4">
+    <row r="30" spans="1:21" ht="33">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -5819,9 +5915,12 @@
       <c r="T30" t="s">
         <v>835</v>
       </c>
+      <c r="U30" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="31" spans="1:20" ht="33">
-      <c r="A31" s="4">
+    <row r="31" spans="1:21" ht="33">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -5881,9 +5980,12 @@
       <c r="T31" t="s">
         <v>839</v>
       </c>
+      <c r="U31" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="32" spans="1:20" ht="16.5">
-      <c r="A32" s="4">
+    <row r="32" spans="1:21" ht="16.5">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -5943,9 +6045,12 @@
       <c r="T32" t="s">
         <v>843</v>
       </c>
+      <c r="U32" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="33" spans="1:20" ht="33">
-      <c r="A33" s="4">
+    <row r="33" spans="1:21" ht="33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -6005,9 +6110,12 @@
       <c r="T33" t="s">
         <v>847</v>
       </c>
+      <c r="U33" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="34" spans="1:20" ht="33">
-      <c r="A34" s="4">
+    <row r="34" spans="1:21" ht="33">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -6067,9 +6175,12 @@
       <c r="T34" t="s">
         <v>859</v>
       </c>
+      <c r="U34" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="35" spans="1:20" ht="33">
-      <c r="A35" s="4">
+    <row r="35" spans="1:21" ht="33">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -6129,9 +6240,12 @@
       <c r="T35" t="s">
         <v>851</v>
       </c>
+      <c r="U35" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="36" spans="1:20" ht="33">
-      <c r="A36" s="4">
+    <row r="36" spans="1:21" ht="33">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -6191,9 +6305,12 @@
       <c r="T36" t="s">
         <v>855</v>
       </c>
+      <c r="U36" t="s">
+        <v>1004</v>
+      </c>
     </row>
-    <row r="37" spans="1:20" ht="33">
-      <c r="A37" s="4">
+    <row r="37" spans="1:21" ht="33">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -6253,9 +6370,12 @@
       <c r="T37" t="s">
         <v>863</v>
       </c>
+      <c r="U37" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="38" spans="1:20" ht="33">
-      <c r="A38" s="4">
+    <row r="38" spans="1:21" ht="33">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -6315,9 +6435,12 @@
       <c r="T38" t="s">
         <v>867</v>
       </c>
+      <c r="U38" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="39" spans="1:20" ht="33">
-      <c r="A39" s="4">
+    <row r="39" spans="1:21" ht="33">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -6377,9 +6500,12 @@
       <c r="T39" t="s">
         <v>871</v>
       </c>
+      <c r="U39" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="40" spans="1:20" ht="33">
-      <c r="A40" s="4">
+    <row r="40" spans="1:21" ht="33">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -6439,9 +6565,12 @@
       <c r="T40" t="s">
         <v>875</v>
       </c>
+      <c r="U40" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="41" spans="1:20" ht="33">
-      <c r="A41" s="4">
+    <row r="41" spans="1:21" ht="33">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -6501,9 +6630,12 @@
       <c r="T41" t="s">
         <v>879</v>
       </c>
+      <c r="U41" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="42" spans="1:20" ht="33">
-      <c r="A42" s="4">
+    <row r="42" spans="1:21" ht="33">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -6563,9 +6695,12 @@
       <c r="T42" t="s">
         <v>883</v>
       </c>
+      <c r="U42" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
-      <c r="A43" s="4">
+    <row r="43" spans="1:21" ht="16.5">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -6625,9 +6760,12 @@
       <c r="T43" t="s">
         <v>887</v>
       </c>
+      <c r="U43" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
-      <c r="A44" s="4">
+    <row r="44" spans="1:21" ht="16.5">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -6687,9 +6825,12 @@
       <c r="T44" t="s">
         <v>891</v>
       </c>
+      <c r="U44" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="45" spans="1:20" ht="33">
-      <c r="A45" s="4">
+    <row r="45" spans="1:21" ht="33">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -6749,9 +6890,12 @@
       <c r="T45" t="s">
         <v>895</v>
       </c>
+      <c r="U45" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
-      <c r="A46" s="4">
+    <row r="46" spans="1:21" ht="16.5">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -6811,9 +6955,12 @@
       <c r="T46" t="s">
         <v>899</v>
       </c>
+      <c r="U46" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="47" spans="1:20" ht="33">
-      <c r="A47" s="4">
+    <row r="47" spans="1:21" ht="33">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -6873,9 +7020,12 @@
       <c r="T47" t="s">
         <v>757</v>
       </c>
+      <c r="U47" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="48" spans="1:20" ht="33">
-      <c r="A48" s="4">
+    <row r="48" spans="1:21" ht="33">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -6935,9 +7085,12 @@
       <c r="T48" t="s">
         <v>789</v>
       </c>
+      <c r="U48" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="49" spans="1:20" ht="33">
-      <c r="A49" s="4">
+    <row r="49" spans="1:21" ht="33">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -6997,9 +7150,12 @@
       <c r="T49" t="s">
         <v>955</v>
       </c>
+      <c r="U49" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="50" spans="1:20" ht="16.5">
-      <c r="A50" s="4">
+    <row r="50" spans="1:21" ht="16.5">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -7059,9 +7215,12 @@
       <c r="T50" t="s">
         <v>912</v>
       </c>
+      <c r="U50" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="51" spans="1:20" ht="33">
-      <c r="A51" s="4">
+    <row r="51" spans="1:21" ht="33">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -7121,9 +7280,12 @@
       <c r="T51" t="s">
         <v>916</v>
       </c>
+      <c r="U51" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="52" spans="1:20" ht="49.5">
-      <c r="A52" s="4">
+    <row r="52" spans="1:21" ht="49.5">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -7183,9 +7345,12 @@
       <c r="T52" t="s">
         <v>920</v>
       </c>
+      <c r="U52" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="53" spans="1:20" ht="33">
-      <c r="A53" s="4">
+    <row r="53" spans="1:21" ht="33">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -7245,9 +7410,12 @@
       <c r="T53" t="s">
         <v>924</v>
       </c>
+      <c r="U53" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="54" spans="1:20" ht="33">
-      <c r="A54" s="4">
+    <row r="54" spans="1:21" ht="33">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -7307,9 +7475,12 @@
       <c r="T54" t="s">
         <v>928</v>
       </c>
+      <c r="U54" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="55" spans="1:20" ht="33">
-      <c r="A55" s="4">
+    <row r="55" spans="1:21" ht="33">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -7369,9 +7540,12 @@
       <c r="T55" t="s">
         <v>932</v>
       </c>
+      <c r="U55" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="56" spans="1:20" ht="33">
-      <c r="A56" s="4">
+    <row r="56" spans="1:21" ht="33">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -7431,9 +7605,12 @@
       <c r="T56" t="s">
         <v>936</v>
       </c>
+      <c r="U56" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="57" spans="1:20" ht="66">
-      <c r="A57" s="4">
+    <row r="57" spans="1:21" ht="66">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -7493,9 +7670,12 @@
       <c r="T57" t="s">
         <v>940</v>
       </c>
+      <c r="U57" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="58" spans="1:20" ht="16.5">
-      <c r="A58" s="4">
+    <row r="58" spans="1:21" ht="16.5">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -7555,9 +7735,12 @@
       <c r="T58" t="s">
         <v>944</v>
       </c>
+      <c r="U58" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="59" spans="1:20" ht="33">
-      <c r="A59" s="4">
+    <row r="59" spans="1:21" ht="33">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -7617,9 +7800,12 @@
       <c r="T59" t="s">
         <v>948</v>
       </c>
+      <c r="U59" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="60" spans="1:20" ht="16.5">
-      <c r="A60" s="4">
+    <row r="60" spans="1:21" ht="16.5">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -7679,9 +7865,12 @@
       <c r="T60" t="s">
         <v>952</v>
       </c>
+      <c r="U60" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="61" spans="1:20" ht="33">
-      <c r="A61" s="4">
+    <row r="61" spans="1:21" ht="33">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -7741,9 +7930,12 @@
       <c r="T61" t="s">
         <v>959</v>
       </c>
+      <c r="U61" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="62" spans="1:20" ht="49.5">
-      <c r="A62" s="4">
+    <row r="62" spans="1:21" ht="49.5">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -7803,9 +7995,12 @@
       <c r="T62" t="s">
         <v>963</v>
       </c>
+      <c r="U62" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="63" spans="1:20" ht="33">
-      <c r="A63" s="4">
+    <row r="63" spans="1:21" ht="33">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -7865,9 +8060,12 @@
       <c r="T63" t="s">
         <v>967</v>
       </c>
+      <c r="U63" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="64" spans="1:20" ht="49.5">
-      <c r="A64" s="4">
+    <row r="64" spans="1:21" ht="49.5">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -7927,9 +8125,12 @@
       <c r="T64" t="s">
         <v>971</v>
       </c>
+      <c r="U64" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="65" spans="1:20" ht="33">
-      <c r="A65" s="4">
+    <row r="65" spans="1:21" ht="33">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -7989,9 +8190,12 @@
       <c r="T65" t="s">
         <v>975</v>
       </c>
+      <c r="U65" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="66" spans="1:20" ht="33">
-      <c r="A66" s="4">
+    <row r="66" spans="1:21" ht="33">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -8051,9 +8255,12 @@
       <c r="T66" t="s">
         <v>843</v>
       </c>
+      <c r="U66" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="67" spans="1:20" ht="33">
-      <c r="A67" s="4">
+    <row r="67" spans="1:21" ht="33">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -8113,9 +8320,12 @@
       <c r="T67" t="s">
         <v>982</v>
       </c>
+      <c r="U67" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="68" spans="1:20" ht="33">
-      <c r="A68" s="4">
+    <row r="68" spans="1:21" ht="33">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -8175,9 +8385,12 @@
       <c r="T68" t="s">
         <v>986</v>
       </c>
+      <c r="U68" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="69" spans="1:20" ht="16.5">
-      <c r="A69" s="4">
+    <row r="69" spans="1:21" ht="16.5">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -8237,9 +8450,12 @@
       <c r="T69" t="s">
         <v>990</v>
       </c>
+      <c r="U69" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="70" spans="1:20" ht="49.5">
-      <c r="A70" s="4">
+    <row r="70" spans="1:21" ht="49.5">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -8299,9 +8515,12 @@
       <c r="T70" t="s">
         <v>994</v>
       </c>
+      <c r="U70" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="71" spans="1:20" ht="33">
-      <c r="A71" s="4">
+    <row r="71" spans="1:21" ht="33">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -8361,9 +8580,12 @@
       <c r="T71" t="s">
         <v>998</v>
       </c>
+      <c r="U71" t="s">
+        <v>1005</v>
+      </c>
     </row>
-    <row r="72" spans="1:20" ht="33">
-      <c r="A72" s="4">
+    <row r="72" spans="1:21" ht="33">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -8415,17 +8637,20 @@
         <v>999</v>
       </c>
       <c r="R72" t="s">
+        <v>1006</v>
+      </c>
+      <c r="S72" t="s">
         <v>1000</v>
       </c>
-      <c r="S72" t="s">
+      <c r="T72" t="s">
         <v>1001</v>
       </c>
-      <c r="T72" t="s">
-        <v>1002</v>
+      <c r="U72" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="33">
-      <c r="A73" s="4">
+    <row r="73" spans="1:21" ht="33">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -8474,20 +8699,23 @@
         <v>413</v>
       </c>
       <c r="Q73" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="R73" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="S73" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="T73" t="s">
-        <v>1006</v>
+        <v>1011</v>
+      </c>
+      <c r="U73" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="74" spans="1:20" ht="33">
-      <c r="A74" s="4">
+    <row r="74" spans="1:21" ht="33">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -8536,20 +8764,23 @@
         <v>417</v>
       </c>
       <c r="Q74" t="s">
+        <v>1012</v>
+      </c>
+      <c r="R74" t="s">
+        <v>1013</v>
+      </c>
+      <c r="S74" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T74" t="s">
+        <v>1015</v>
+      </c>
+      <c r="U74" t="s">
         <v>1007</v>
       </c>
-      <c r="R74" t="s">
-        <v>1008</v>
-      </c>
-      <c r="S74" t="s">
-        <v>1009</v>
-      </c>
-      <c r="T74" t="s">
-        <v>1010</v>
-      </c>
     </row>
-    <row r="75" spans="1:20" ht="33">
-      <c r="A75" s="4">
+    <row r="75" spans="1:21" ht="33">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -8598,20 +8829,23 @@
         <v>420</v>
       </c>
       <c r="Q75" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="R75" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="S75" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="T75" t="s">
-        <v>1014</v>
+        <v>1019</v>
+      </c>
+      <c r="U75" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="66">
-      <c r="A76" s="4">
+    <row r="76" spans="1:21" ht="66">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -8660,20 +8894,23 @@
         <v>424</v>
       </c>
       <c r="Q76" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="R76" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="S76" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
       <c r="T76" t="s">
-        <v>1018</v>
+        <v>1023</v>
+      </c>
+      <c r="U76" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="66">
-      <c r="A77" s="4">
+    <row r="77" spans="1:21" ht="66">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -8722,20 +8959,23 @@
         <v>427</v>
       </c>
       <c r="Q77" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="R77" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="S77" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="T77" t="s">
-        <v>1022</v>
+        <v>1027</v>
+      </c>
+      <c r="U77" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="78" spans="1:20" ht="33">
-      <c r="A78" s="4">
+    <row r="78" spans="1:21" ht="33">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -8784,20 +9024,23 @@
         <v>431</v>
       </c>
       <c r="Q78" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="R78" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="S78" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="T78" t="s">
-        <v>1026</v>
+        <v>1031</v>
+      </c>
+      <c r="U78" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="79" spans="1:20" ht="49.5">
-      <c r="A79" s="4">
+    <row r="79" spans="1:21" ht="49.5">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -8846,20 +9089,23 @@
         <v>434</v>
       </c>
       <c r="Q79" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="R79" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="S79" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="T79" t="s">
-        <v>1030</v>
+        <v>1035</v>
+      </c>
+      <c r="U79" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="80" spans="1:20" ht="49.5">
-      <c r="A80" s="4">
+    <row r="80" spans="1:21" ht="49.5">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -8908,20 +9154,23 @@
         <v>263</v>
       </c>
       <c r="Q80" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="R80" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="S80" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
       <c r="T80" t="s">
-        <v>1034</v>
+        <v>1039</v>
+      </c>
+      <c r="U80" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="81" spans="1:20" ht="49.5">
-      <c r="A81" s="4">
+    <row r="81" spans="1:21" ht="49.5">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -8970,20 +9219,23 @@
         <v>437</v>
       </c>
       <c r="Q81" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="R81" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="S81" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="T81" t="s">
-        <v>1038</v>
+        <v>1043</v>
+      </c>
+      <c r="U81" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="82" spans="1:20" ht="49.5">
-      <c r="A82" s="4">
+    <row r="82" spans="1:21" ht="49.5">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -9032,20 +9284,23 @@
         <v>263</v>
       </c>
       <c r="Q82" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="R82" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="S82" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="T82" t="s">
-        <v>1042</v>
+        <v>1047</v>
+      </c>
+      <c r="U82" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="83" spans="1:20" ht="33">
-      <c r="A83" s="4">
+    <row r="83" spans="1:21" ht="33">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -9094,20 +9349,23 @@
         <v>439</v>
       </c>
       <c r="Q83" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="R83" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="S83" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
       <c r="T83" t="s">
-        <v>1046</v>
+        <v>1051</v>
+      </c>
+      <c r="U83" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="84" spans="1:20" ht="49.5">
-      <c r="A84" s="4">
+    <row r="84" spans="1:21" ht="49.5">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -9156,20 +9414,23 @@
         <v>440</v>
       </c>
       <c r="Q84" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="R84" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="S84" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="T84" t="s">
-        <v>1050</v>
+        <v>1055</v>
+      </c>
+      <c r="U84" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="85" spans="1:20" ht="49.5">
-      <c r="A85" s="4">
+    <row r="85" spans="1:21" ht="49.5">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -9218,20 +9479,23 @@
         <v>442</v>
       </c>
       <c r="Q85" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
       <c r="R85" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="S85" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="T85" t="s">
-        <v>1054</v>
+        <v>1059</v>
+      </c>
+      <c r="U85" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="86" spans="1:20" ht="33">
-      <c r="A86" s="4">
+    <row r="86" spans="1:21" ht="33">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -9280,20 +9544,23 @@
         <v>160</v>
       </c>
       <c r="Q86" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="R86" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
       <c r="S86" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="T86" t="s">
-        <v>1058</v>
+        <v>1063</v>
+      </c>
+      <c r="U86" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="87" spans="1:20" ht="33">
-      <c r="A87" s="4">
+    <row r="87" spans="1:21" ht="33">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -9342,20 +9609,23 @@
         <v>444</v>
       </c>
       <c r="Q87" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="R87" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="S87" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="T87" t="s">
-        <v>1062</v>
+        <v>1067</v>
+      </c>
+      <c r="U87" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="49.5">
-      <c r="A88" s="4">
+    <row r="88" spans="1:21" ht="49.5">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -9404,20 +9674,23 @@
         <v>446</v>
       </c>
       <c r="Q88" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="R88" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="S88" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="T88" t="s">
-        <v>1066</v>
+        <v>1071</v>
+      </c>
+      <c r="U88" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="89" spans="1:20" ht="33">
-      <c r="A89" s="4">
+    <row r="89" spans="1:21" ht="33">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -9466,20 +9739,23 @@
         <v>280</v>
       </c>
       <c r="Q89" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="R89" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="S89" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="T89" t="s">
-        <v>1070</v>
+        <v>1075</v>
+      </c>
+      <c r="U89" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="90" spans="1:20" ht="49.5">
-      <c r="A90" s="4">
+    <row r="90" spans="1:21" ht="49.5">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
@@ -9528,20 +9804,23 @@
         <v>272</v>
       </c>
       <c r="Q90" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
       <c r="R90" t="s">
-        <v>1072</v>
+        <v>1077</v>
       </c>
       <c r="S90" t="s">
-        <v>1073</v>
+        <v>1078</v>
       </c>
       <c r="T90" t="s">
-        <v>1074</v>
+        <v>1079</v>
+      </c>
+      <c r="U90" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="91" spans="1:20" ht="33">
-      <c r="A91" s="4">
+    <row r="91" spans="1:21" ht="33">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -9590,20 +9869,23 @@
         <v>451</v>
       </c>
       <c r="Q91" t="s">
-        <v>1075</v>
+        <v>1080</v>
       </c>
       <c r="R91" t="s">
-        <v>1076</v>
+        <v>1081</v>
       </c>
       <c r="S91" t="s">
-        <v>1077</v>
+        <v>1082</v>
       </c>
       <c r="T91" t="s">
-        <v>1078</v>
+        <v>1083</v>
+      </c>
+      <c r="U91" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="92" spans="1:20" ht="33">
-      <c r="A92" s="4">
+    <row r="92" spans="1:21" ht="33">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -9652,20 +9934,23 @@
         <v>342</v>
       </c>
       <c r="Q92" t="s">
-        <v>1079</v>
+        <v>1084</v>
       </c>
       <c r="R92" t="s">
-        <v>1080</v>
+        <v>1085</v>
       </c>
       <c r="S92" t="s">
-        <v>1081</v>
+        <v>1086</v>
       </c>
       <c r="T92" t="s">
-        <v>1082</v>
+        <v>1087</v>
+      </c>
+      <c r="U92" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="93" spans="1:20" ht="33">
-      <c r="A93" s="4">
+    <row r="93" spans="1:21" ht="33">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -9714,20 +9999,23 @@
         <v>453</v>
       </c>
       <c r="Q93" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="R93" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="S93" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="T93" t="s">
-        <v>1086</v>
+        <v>1091</v>
+      </c>
+      <c r="U93" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="94" spans="1:20" ht="33">
-      <c r="A94" s="4">
+    <row r="94" spans="1:21" ht="33">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -9776,20 +10064,23 @@
         <v>455</v>
       </c>
       <c r="Q94" t="s">
-        <v>1087</v>
+        <v>1092</v>
       </c>
       <c r="R94" t="s">
-        <v>1088</v>
+        <v>1093</v>
       </c>
       <c r="S94" t="s">
-        <v>1089</v>
+        <v>1094</v>
       </c>
       <c r="T94" t="s">
-        <v>1090</v>
+        <v>1095</v>
+      </c>
+      <c r="U94" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="95" spans="1:20" ht="33">
-      <c r="A95" s="4">
+    <row r="95" spans="1:21" ht="33">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -9838,20 +10129,23 @@
         <v>457</v>
       </c>
       <c r="Q95" t="s">
-        <v>1091</v>
+        <v>1096</v>
       </c>
       <c r="R95" t="s">
-        <v>1092</v>
+        <v>1097</v>
       </c>
       <c r="S95" t="s">
-        <v>1093</v>
+        <v>1098</v>
       </c>
       <c r="T95" t="s">
-        <v>1094</v>
+        <v>1099</v>
+      </c>
+      <c r="U95" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="96" spans="1:20" ht="33">
-      <c r="A96" s="4">
+    <row r="96" spans="1:21" ht="33">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -9900,20 +10194,23 @@
         <v>459</v>
       </c>
       <c r="Q96" t="s">
-        <v>1095</v>
+        <v>1100</v>
       </c>
       <c r="R96" t="s">
-        <v>1096</v>
+        <v>1101</v>
       </c>
       <c r="S96" t="s">
-        <v>1097</v>
+        <v>1102</v>
       </c>
       <c r="T96" t="s">
-        <v>1098</v>
+        <v>1103</v>
+      </c>
+      <c r="U96" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="33">
-      <c r="A97" s="4">
+    <row r="97" spans="1:21" ht="33">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -9962,20 +10259,23 @@
         <v>397</v>
       </c>
       <c r="Q97" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="R97" t="s">
-        <v>1100</v>
+        <v>1105</v>
       </c>
       <c r="S97" t="s">
-        <v>1101</v>
+        <v>1106</v>
       </c>
       <c r="T97" t="s">
-        <v>1102</v>
+        <v>1107</v>
+      </c>
+      <c r="U97" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="33">
-      <c r="A98" s="4">
+    <row r="98" spans="1:21" ht="33">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -10024,20 +10324,23 @@
         <v>457</v>
       </c>
       <c r="Q98" t="s">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="R98" t="s">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="S98" t="s">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="T98" t="s">
-        <v>1106</v>
+        <v>1111</v>
+      </c>
+      <c r="U98" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="33">
-      <c r="A99" s="4">
+    <row r="99" spans="1:21" ht="33">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -10086,20 +10389,23 @@
         <v>463</v>
       </c>
       <c r="Q99" t="s">
-        <v>1107</v>
+        <v>1112</v>
       </c>
       <c r="R99" t="s">
-        <v>1177</v>
+        <v>1113</v>
       </c>
       <c r="S99" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="T99" t="s">
-        <v>1109</v>
+        <v>1115</v>
+      </c>
+      <c r="U99" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="33">
-      <c r="A100" s="4">
+    <row r="100" spans="1:21" ht="33">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -10148,20 +10454,23 @@
         <v>465</v>
       </c>
       <c r="Q100" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="R100" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="S100" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="T100" t="s">
-        <v>1113</v>
+        <v>1119</v>
+      </c>
+      <c r="U100" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="33">
-      <c r="A101" s="4">
+    <row r="101" spans="1:21" ht="33">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -10210,20 +10519,23 @@
         <v>467</v>
       </c>
       <c r="Q101" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="R101" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="S101" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="T101" t="s">
-        <v>1117</v>
+        <v>1123</v>
+      </c>
+      <c r="U101" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="33">
-      <c r="A102" s="4">
+    <row r="102" spans="1:21" ht="33">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -10272,20 +10584,23 @@
         <v>233</v>
       </c>
       <c r="Q102" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="R102" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="S102" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="T102" t="s">
-        <v>1121</v>
+        <v>1127</v>
+      </c>
+      <c r="U102" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="33">
-      <c r="A103" s="4">
+    <row r="103" spans="1:21" ht="33">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -10334,20 +10649,23 @@
         <v>471</v>
       </c>
       <c r="Q103" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="R103" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="S103" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="T103" t="s">
-        <v>1125</v>
+        <v>1131</v>
+      </c>
+      <c r="U103" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="33">
-      <c r="A104" s="4">
+    <row r="104" spans="1:21" ht="33">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -10396,20 +10714,23 @@
         <v>473</v>
       </c>
       <c r="Q104" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="R104" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="S104" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="T104" t="s">
-        <v>1129</v>
+        <v>1135</v>
+      </c>
+      <c r="U104" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="49.5">
-      <c r="A105" s="4">
+    <row r="105" spans="1:21" ht="49.5">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -10458,20 +10779,23 @@
         <v>475</v>
       </c>
       <c r="Q105" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="R105" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="S105" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="T105" t="s">
-        <v>1133</v>
+        <v>1139</v>
+      </c>
+      <c r="U105" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="16.5">
-      <c r="A106" s="4">
+    <row r="106" spans="1:21" ht="16.5">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -10520,20 +10844,23 @@
         <v>477</v>
       </c>
       <c r="Q106" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="R106" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="S106" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="T106" t="s">
-        <v>1137</v>
+        <v>1143</v>
+      </c>
+      <c r="U106" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="33">
-      <c r="A107" s="4">
+    <row r="107" spans="1:21" ht="33">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -10582,20 +10909,23 @@
         <v>155</v>
       </c>
       <c r="Q107" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="R107" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="S107" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="T107" t="s">
-        <v>1141</v>
+        <v>1147</v>
+      </c>
+      <c r="U107" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="49.5">
-      <c r="A108" s="4">
+    <row r="108" spans="1:21" ht="49.5">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -10644,20 +10974,23 @@
         <v>480</v>
       </c>
       <c r="Q108" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="R108" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="S108" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="T108" t="s">
-        <v>1145</v>
+        <v>1151</v>
+      </c>
+      <c r="U108" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="16.5">
-      <c r="A109" s="4">
+    <row r="109" spans="1:21" ht="16.5">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -10706,20 +11039,23 @@
         <v>482</v>
       </c>
       <c r="Q109" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="R109" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="S109" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="T109" t="s">
-        <v>1149</v>
+        <v>1155</v>
+      </c>
+      <c r="U109" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="33">
-      <c r="A110" s="4">
+    <row r="110" spans="1:21" ht="33">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -10768,20 +11104,23 @@
         <v>484</v>
       </c>
       <c r="Q110" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="R110" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="S110" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="T110" t="s">
-        <v>1153</v>
+        <v>1159</v>
+      </c>
+      <c r="U110" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="49.5">
-      <c r="A111" s="4">
+    <row r="111" spans="1:21" ht="49.5">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -10830,20 +11169,23 @@
         <v>487</v>
       </c>
       <c r="Q111" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="R111" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="S111" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="T111" t="s">
-        <v>1157</v>
+        <v>1163</v>
+      </c>
+      <c r="U111" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="49.5">
-      <c r="A112" s="4">
+    <row r="112" spans="1:21" ht="49.5">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -10892,20 +11234,23 @@
         <v>284</v>
       </c>
       <c r="Q112" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="R112" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="S112" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="T112" t="s">
-        <v>1161</v>
+        <v>1167</v>
+      </c>
+      <c r="U112" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="33">
-      <c r="A113" s="4">
+    <row r="113" spans="1:21" ht="33">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -10954,20 +11299,23 @@
         <v>143</v>
       </c>
       <c r="Q113" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="R113" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="S113" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="T113" t="s">
-        <v>1165</v>
+        <v>1171</v>
+      </c>
+      <c r="U113" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="33">
-      <c r="A114" s="4">
+    <row r="114" spans="1:21" ht="33">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -11016,20 +11364,23 @@
         <v>143</v>
       </c>
       <c r="Q114" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="R114" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="S114" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="T114" t="s">
-        <v>1169</v>
+        <v>1175</v>
+      </c>
+      <c r="U114" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="33">
-      <c r="A115" s="4">
+    <row r="115" spans="1:21" ht="33">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -11078,20 +11429,23 @@
         <v>492</v>
       </c>
       <c r="Q115" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="R115" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="S115" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="T115" t="s">
-        <v>1173</v>
+        <v>1179</v>
+      </c>
+      <c r="U115" t="s">
+        <v>1007</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="33">
-      <c r="A116" s="4">
+    <row r="116" spans="1:21" ht="33">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -11140,16 +11494,19 @@
         <v>143</v>
       </c>
       <c r="Q116" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="R116" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="S116" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="T116" t="s">
         <v>785</v>
+      </c>
+      <c r="U116" t="s">
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
